--- a/artfynd/A 42488-2022.xlsx
+++ b/artfynd/A 42488-2022.xlsx
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104350063</v>
+        <v>104350639</v>
       </c>
       <c r="B8" t="n">
-        <v>93235</v>
+        <v>78569</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,41 +1364,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>210</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>N om Ömtbergets NR, Vrm</t>
+          <t>Norr om Ömtberget, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>380119.0609955179</v>
+        <v>380168.6486564708</v>
       </c>
       <c r="R8" t="n">
-        <v>6742899.449886479</v>
+        <v>6743006.705302105</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1452,22 +1452,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104350639</v>
+        <v>104350649</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>89356</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>380168.6486564708</v>
+        <v>380247.5258197224</v>
       </c>
       <c r="R9" t="n">
-        <v>6743006.705302105</v>
+        <v>6742951.796367095</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104350649</v>
+        <v>104350071</v>
       </c>
       <c r="B10" t="n">
         <v>89356</v>
@@ -1612,14 +1612,14 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Norr om Ömtberget, Vrm</t>
+          <t>N om Ömtbergets NR, Vrm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>380247.5258197224</v>
+        <v>380268.1993143009</v>
       </c>
       <c r="R10" t="n">
-        <v>6742951.796367095</v>
+        <v>6742970.151638175</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1676,22 +1676,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104350071</v>
+        <v>104350087</v>
       </c>
       <c r="B11" t="n">
-        <v>89356</v>
+        <v>5113</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>380268.1993143009</v>
+        <v>380190.7227334208</v>
       </c>
       <c r="R11" t="n">
-        <v>6742970.151638175</v>
+        <v>6743023.05914304</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104350087</v>
+        <v>104350651</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>89392</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,38 +1812,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>N om Ömtbergets NR, Vrm</t>
+          <t>Norr om Ömtberget, Vrm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>380190.7227334208</v>
+        <v>380253.1139042496</v>
       </c>
       <c r="R12" t="n">
-        <v>6743023.05914304</v>
+        <v>6742957.958504017</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1900,19 +1900,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104350651</v>
+        <v>104350653</v>
       </c>
       <c r="B13" t="n">
         <v>89392</v>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>380253.1139042496</v>
+        <v>380249.4804792034</v>
       </c>
       <c r="R13" t="n">
-        <v>6742957.958504017</v>
+        <v>6742951.73079169</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104350653</v>
+        <v>104350636</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>380249.4804792034</v>
+        <v>380202.6607565928</v>
       </c>
       <c r="R14" t="n">
-        <v>6742951.73079169</v>
+        <v>6743014.355268791</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104350636</v>
+        <v>104350634</v>
       </c>
       <c r="B15" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>380202.6607565928</v>
+        <v>380215.4804281608</v>
       </c>
       <c r="R15" t="n">
-        <v>6743014.355268791</v>
+        <v>6743017.344002469</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104350634</v>
+        <v>104350655</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>380215.4804281608</v>
+        <v>380207.1530053866</v>
       </c>
       <c r="R16" t="n">
-        <v>6743017.344002469</v>
+        <v>6742900.400019333</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104350655</v>
+        <v>104350638</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>78602</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,20 +2372,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>380207.1530053866</v>
+        <v>380167.7696139141</v>
       </c>
       <c r="R17" t="n">
-        <v>6742900.400019333</v>
+        <v>6743009.66536135</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,50 +2472,50 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104350638</v>
+        <v>104350078</v>
       </c>
       <c r="B18" t="n">
-        <v>78602</v>
+        <v>96334</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Norr om Ömtberget, Vrm</t>
+          <t>N om Ömtbergets NR, Vrm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>380167.7696139141</v>
+        <v>380263.8502763003</v>
       </c>
       <c r="R18" t="n">
-        <v>6743009.66536135</v>
+        <v>6743073.84295321</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2572,49 +2572,49 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104350078</v>
+        <v>104350063</v>
       </c>
       <c r="B19" t="n">
-        <v>96334</v>
+        <v>93235</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>210</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>380263.8502763003</v>
+        <v>380119.0609955179</v>
       </c>
       <c r="R19" t="n">
-        <v>6743073.84295321</v>
+        <v>6742899.449886479</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>

--- a/artfynd/A 42488-2022.xlsx
+++ b/artfynd/A 42488-2022.xlsx
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104350639</v>
+        <v>104350063</v>
       </c>
       <c r="B8" t="n">
-        <v>78569</v>
+        <v>93235</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,41 +1364,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>210</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Norr om Ömtberget, Vrm</t>
+          <t>N om Ömtbergets NR, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>380168.6486564708</v>
+        <v>380119.0609955179</v>
       </c>
       <c r="R8" t="n">
-        <v>6743006.705302105</v>
+        <v>6742899.449886479</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1452,22 +1452,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104350649</v>
+        <v>104350639</v>
       </c>
       <c r="B9" t="n">
-        <v>89356</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>380247.5258197224</v>
+        <v>380168.6486564708</v>
       </c>
       <c r="R9" t="n">
-        <v>6742951.796367095</v>
+        <v>6743006.705302105</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104350071</v>
+        <v>104350649</v>
       </c>
       <c r="B10" t="n">
         <v>89356</v>
@@ -1612,14 +1612,14 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>N om Ömtbergets NR, Vrm</t>
+          <t>Norr om Ömtberget, Vrm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>380268.1993143009</v>
+        <v>380247.5258197224</v>
       </c>
       <c r="R10" t="n">
-        <v>6742970.151638175</v>
+        <v>6742951.796367095</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1676,22 +1676,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104350087</v>
+        <v>104350071</v>
       </c>
       <c r="B11" t="n">
-        <v>5113</v>
+        <v>89356</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100526</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>380190.7227334208</v>
+        <v>380268.1993143009</v>
       </c>
       <c r="R11" t="n">
-        <v>6743023.05914304</v>
+        <v>6742970.151638175</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104350651</v>
+        <v>104350087</v>
       </c>
       <c r="B12" t="n">
-        <v>89392</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,38 +1812,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Norr om Ömtberget, Vrm</t>
+          <t>N om Ömtbergets NR, Vrm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>380253.1139042496</v>
+        <v>380190.7227334208</v>
       </c>
       <c r="R12" t="n">
-        <v>6742957.958504017</v>
+        <v>6743023.05914304</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1900,19 +1900,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104350653</v>
+        <v>104350651</v>
       </c>
       <c r="B13" t="n">
         <v>89392</v>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>380249.4804792034</v>
+        <v>380253.1139042496</v>
       </c>
       <c r="R13" t="n">
-        <v>6742951.73079169</v>
+        <v>6742957.958504017</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104350636</v>
+        <v>104350653</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>380202.6607565928</v>
+        <v>380249.4804792034</v>
       </c>
       <c r="R14" t="n">
-        <v>6743014.355268791</v>
+        <v>6742951.73079169</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104350634</v>
+        <v>104350636</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>380215.4804281608</v>
+        <v>380202.6607565928</v>
       </c>
       <c r="R15" t="n">
-        <v>6743017.344002469</v>
+        <v>6743014.355268791</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104350655</v>
+        <v>104350634</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>380207.1530053866</v>
+        <v>380215.4804281608</v>
       </c>
       <c r="R16" t="n">
-        <v>6742900.400019333</v>
+        <v>6743017.344002469</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104350638</v>
+        <v>104350655</v>
       </c>
       <c r="B17" t="n">
-        <v>78602</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,20 +2372,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2400,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>380167.7696139141</v>
+        <v>380207.1530053866</v>
       </c>
       <c r="R17" t="n">
-        <v>6743009.66536135</v>
+        <v>6742900.400019333</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,50 +2472,50 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104350078</v>
+        <v>104350638</v>
       </c>
       <c r="B18" t="n">
-        <v>96334</v>
+        <v>78602</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>N om Ömtbergets NR, Vrm</t>
+          <t>Norr om Ömtberget, Vrm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>380263.8502763003</v>
+        <v>380167.7696139141</v>
       </c>
       <c r="R18" t="n">
-        <v>6743073.84295321</v>
+        <v>6743009.66536135</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2572,49 +2572,49 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104350063</v>
+        <v>104350078</v>
       </c>
       <c r="B19" t="n">
-        <v>93235</v>
+        <v>96334</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>210</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>380119.0609955179</v>
+        <v>380263.8502763003</v>
       </c>
       <c r="R19" t="n">
-        <v>6742899.449886479</v>
+        <v>6743073.84295321</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
